--- a/dados/Estudio Del Uso Del Virtual de Los Seniors - extract p 151-152.xlsx
+++ b/dados/Estudio Del Uso Del Virtual de Los Seniors - extract p 151-152.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpalbino/Library/Mobile Documents/com~apple~CloudDocs/GitHub/espaco-virtual-e-geracoes/dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\espaco-virtual-e-geracoes\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16C7AEB-2874-0641-BAE3-A382BCB6C268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C744960E-AD71-490B-8974-F21416E5D590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23600" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5610" yWindow="1380" windowWidth="17955" windowHeight="12690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1" sheetId="1" r:id="rId1"/>
+    <sheet name="original" sheetId="1" r:id="rId1"/>
     <sheet name="tabla6" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <r>
       <rPr>
@@ -489,536 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD4</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA6</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB5</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC7</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD8</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA11</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB10</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC9</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD12</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA14</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB15</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC16</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD13</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA20</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB19</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC18</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD17</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA23</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB24</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC25</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD21</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA32</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB31</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC27</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD22</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA35</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB33</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC28</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD26</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA39</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB34</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC30</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD29</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PA40</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PB36</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PC37</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>PD38</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RESPUESTAS</t>
   </si>
   <si>
@@ -1143,6 +625,129 @@
   </si>
   <si>
     <t>P9</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PB19</t>
+  </si>
+  <si>
+    <t>PB24</t>
+  </si>
+  <si>
+    <t>PB31</t>
+  </si>
+  <si>
+    <t>PB33</t>
+  </si>
+  <si>
+    <t>PB34</t>
+  </si>
+  <si>
+    <t>PB36</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>PC16</t>
+  </si>
+  <si>
+    <t>PC18</t>
+  </si>
+  <si>
+    <t>PC25</t>
+  </si>
+  <si>
+    <t>PC27</t>
+  </si>
+  <si>
+    <t>PC28</t>
+  </si>
+  <si>
+    <t>PC30</t>
+  </si>
+  <si>
+    <t>PC37</t>
+  </si>
+  <si>
+    <t>PD4</t>
+  </si>
+  <si>
+    <t>PD8</t>
+  </si>
+  <si>
+    <t>PD12</t>
+  </si>
+  <si>
+    <t>PD13</t>
+  </si>
+  <si>
+    <t>PD17</t>
+  </si>
+  <si>
+    <t>PD21</t>
+  </si>
+  <si>
+    <t>PD22</t>
+  </si>
+  <si>
+    <t>PD26</t>
+  </si>
+  <si>
+    <t>PD29</t>
+  </si>
+  <si>
+    <t>PD38</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA20</t>
+  </si>
+  <si>
+    <t>PA23</t>
+  </si>
+  <si>
+    <t>PA32</t>
+  </si>
+  <si>
+    <t>PA35</t>
+  </si>
+  <si>
+    <t>PA39</t>
+  </si>
+  <si>
+    <t>PA40</t>
+  </si>
+  <si>
+    <t>Soma</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +757,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,20 +782,6 @@
     </font>
     <font>
       <b/>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1240,6 +831,36 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1305,45 +926,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,355 +1316,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="15" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="12" width="3.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="11"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
+      <c r="D1" s="11"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="11"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="H1" s="11"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>45</v>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
+      <c r="D2" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>45</v>
+      <c r="F2" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>45</v>
+      <c r="H2" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="13">
         <v>58</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="13">
         <v>21</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="E3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="13">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="13">
         <v>24</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:12">
+      <c r="A4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="13">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="13">
         <v>58</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="13">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="13">
         <v>15</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:12">
+      <c r="A5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="13">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13">
         <v>33</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="E5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="13">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="13">
         <v>0</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="13">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="13">
         <v>16</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="13">
         <v>29</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="13">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="13">
         <v>61</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="13">
         <v>16</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H7" s="13">
         <v>12</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
+    <row r="8" spans="1:12">
+      <c r="A8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="13">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="13">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="13">
         <v>26</v>
       </c>
-      <c r="D8" s="3">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="13">
         <v>2</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="9" spans="1:12">
+      <c r="A9" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="13">
         <v>45</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="13">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="13">
         <v>13</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="10" spans="1:12">
+      <c r="A10" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="13">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="13">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="13">
         <v>32</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="13">
         <v>15</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11" spans="1:12">
+      <c r="A11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="13">
         <v>0</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="13">
         <v>31</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="13">
         <v>16</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="13">
         <v>9</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="3">
+    <row r="12" spans="1:12">
+      <c r="A12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="13">
         <v>23</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="13">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="13">
         <v>38</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="13">
         <v>32</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="14">
+        <f>SUM(B3:B12)</f>
+        <v>224</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="14">
+        <f>SUM(D3:D12)</f>
+        <v>291</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="14">
+        <f>SUM(F3:F12)</f>
+        <v>201</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="14">
+        <f>SUM(H3:H12)</f>
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2039,341 +1696,339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="8" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="9">
+    <row r="33" spans="1:2">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="9">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="9">
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="9">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="9">
+    <row r="41" spans="1:2">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="9">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="B41" s="4">
         <v>23</v>
       </c>
     </row>
